--- a/Excel/Airpositive.xlsx
+++ b/Excel/Airpositive.xlsx
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="CE1" workbookViewId="0">
+      <selection activeCell="CK15" sqref="CK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Excel/Airpositive.xlsx
+++ b/Excel/Airpositive.xlsx
@@ -417,7 +417,7 @@
     <t>TravelStatusDN</t>
   </si>
   <si>
-    <t>9210291204</t>
+    <t>9210291205</t>
   </si>
 </sst>
 </file>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CE1" workbookViewId="0">
-      <selection activeCell="CK15" sqref="CK15"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Excel/Airpositive.xlsx
+++ b/Excel/Airpositive.xlsx
@@ -417,7 +417,7 @@
     <t>TravelStatusDN</t>
   </si>
   <si>
-    <t>9210291205</t>
+    <t>9210299905</t>
   </si>
 </sst>
 </file>
@@ -792,7 +792,7 @@
   <dimension ref="A1:CL2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Excel/Airpositive.xlsx
+++ b/Excel/Airpositive.xlsx
@@ -417,7 +417,7 @@
     <t>TravelStatusDN</t>
   </si>
   <si>
-    <t>9210299905</t>
+    <t>5210299905</t>
   </si>
 </sst>
 </file>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Excel/Airpositive.xlsx
+++ b/Excel/Airpositive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="137">
   <si>
     <t>Username</t>
   </si>
@@ -417,15 +417,32 @@
     <t>TravelStatusDN</t>
   </si>
   <si>
-    <t>5210299905</t>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>F-First Class</t>
+  </si>
+  <si>
+    <t>issuemode</t>
+  </si>
+  <si>
+    <t>9210291209</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -447,7 +464,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -470,11 +487,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -495,6 +523,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CL2"/>
+  <dimension ref="A1:CN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -879,9 +909,11 @@
     <col min="88" max="88" width="14.140625" customWidth="1"/>
     <col min="89" max="89" width="15.28515625" customWidth="1"/>
     <col min="90" max="90" width="20.42578125" customWidth="1"/>
+    <col min="91" max="91" width="16.42578125" customWidth="1"/>
+    <col min="92" max="92" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90">
+    <row r="1" spans="1:92">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1152,8 +1184,14 @@
       <c r="CL1" s="11" t="s">
         <v>132</v>
       </c>
+      <c r="CM1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="CN1" s="13" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="2" spans="1:90">
+    <row r="2" spans="1:92">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1212,7 +1250,7 @@
         <v>21</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>21</v>
@@ -1423,6 +1461,12 @@
       </c>
       <c r="CL2" s="9" t="s">
         <v>64</v>
+      </c>
+      <c r="CM2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="CN2" s="9" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Airpositive.xlsx
+++ b/Excel/Airpositive.xlsx
@@ -426,7 +426,7 @@
     <t>issuemode</t>
   </si>
   <si>
-    <t>9210291209</t>
+    <t>9210291228</t>
   </si>
 </sst>
 </file>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Excel/Airpositive.xlsx
+++ b/Excel/Airpositive.xlsx
@@ -426,7 +426,7 @@
     <t>issuemode</t>
   </si>
   <si>
-    <t>9210291228</t>
+    <t>9210291263</t>
   </si>
 </sst>
 </file>

--- a/Excel/Airpositive.xlsx
+++ b/Excel/Airpositive.xlsx
@@ -426,7 +426,7 @@
     <t>issuemode</t>
   </si>
   <si>
-    <t>9210291263</t>
+    <t>9210291272</t>
   </si>
 </sst>
 </file>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Excel/Airpositive.xlsx
+++ b/Excel/Airpositive.xlsx
@@ -426,7 +426,7 @@
     <t>issuemode</t>
   </si>
   <si>
-    <t>9210291307</t>
+    <t>9310291311</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -525,6 +525,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,7 +825,7 @@
   <dimension ref="A1:CN2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1249,7 +1252,7 @@
       <c r="S2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="U2" s="8" t="s">

--- a/Excel/Airpositive.xlsx
+++ b/Excel/Airpositive.xlsx
@@ -426,7 +426,7 @@
     <t>issuemode</t>
   </si>
   <si>
-    <t>9310291311</t>
+    <t>9310291387</t>
   </si>
 </sst>
 </file>
@@ -824,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
